--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail15 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>4.802810885652588e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.4931413275024097</v>
+        <v>2.410984097315931e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.312818847456823</v>
+        <v>7.978477884528763e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.410984097315931e-06</v>
+        <v>0.03419219500246735</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.978477884528763e-06</v>
+        <v>0.2724807335297049</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03419219500246735</v>
+        <v>0.07529507793841428</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2724807335297049</v>
+        <v>1.89129257884062</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07529507793841428</v>
+        <v>2.282018580171581</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.920249932755047</v>
+        <v>5.345716854775931</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.282018580171581</v>
+        <v>8.224312053127381e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.345716854775931</v>
+        <v>621292387.7473787</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.224312053127381e-16</v>
+        <v>1.921215850306346e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>621292387.7473787</v>
+        <v>317.4619250170518</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.921215850306346e-07</v>
+        <v>0.0001065148281361605</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>317.4619250170518</v>
+        <v>8.425298124080056</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001065148281361605</v>
+        <v>1.25989809901455</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.425298124080056</v>
+        <v>0.007561024147941363</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.25989809901455</v>
+        <v>3.590690764696182</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007561024147941363</v>
+        <v>0.9575625181428912</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.590690764696182</v>
+        <v>1.293663765811023</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9575625181428912</v>
+        <v>86</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.293663765811023</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.9613116744974455</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>4.542351282230419e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2133341109153771</v>
+        <v>1.808591775006549e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.169352295931079</v>
+        <v>7.989501270600917e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.808591775006549e-06</v>
+        <v>0.01317857182269274</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.989501270600917e-06</v>
+        <v>0.2340127851935792</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01317857182269274</v>
+        <v>0.05483953138120287</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2340127851935792</v>
+        <v>1.892122450372664</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05483953138120287</v>
+        <v>2.25408964235962</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.916139275611043</v>
+        <v>5.344651253798787</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.25408964235962</v>
+        <v>8.227591858749062e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.344651253798787</v>
+        <v>634590144.0320148</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.227591858749062e-16</v>
+        <v>1.883029455966303e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>634590144.0320148</v>
+        <v>331.3289507246396</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.883029455966303e-07</v>
+        <v>0.0001070320079264421</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>331.3289507246396</v>
+        <v>8.053311732375473</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001070320079264421</v>
+        <v>1.311167239565948</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.053311732375473</v>
+        <v>0.006941649695524819</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.311167239565948</v>
+        <v>3.382416207279465</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006941649695524819</v>
+        <v>0.9561360936916583</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.382416207279465</v>
+        <v>1.323230161910633</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9561360936916583</v>
+        <v>90</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.323230161910633</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.7018886641744704</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>4.511034665751038e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.184857802497073</v>
+        <v>1.472478288921453e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.234161817511678</v>
+        <v>7.990991949678776e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.472478288921453e-06</v>
+        <v>-0.005801395301213859</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.990991949678776e-06</v>
+        <v>0.1884855334319892</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.005801395301213859</v>
+        <v>0.03549875118731002</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1884855334319892</v>
+        <v>1.90018623566681</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03549875118731002</v>
+        <v>2.425914593089801</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.922453104635824</v>
+        <v>5.279691507368307</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.425914593089801</v>
+        <v>8.431297023043314e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.279691507368307</v>
+        <v>621523113.4081774</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.431297023043314e-16</v>
+        <v>1.926810934273581e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>621523113.4081774</v>
+        <v>325.6933993923143</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.926810934273581e-07</v>
+        <v>0.0001074143982297667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>325.6933993923143</v>
+        <v>7.368834082549138</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001074143982297667</v>
+        <v>1.328887377812196</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.368834082549138</v>
+        <v>0.005832571289844636</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.328887377812196</v>
+        <v>3.418032098285279</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005832571289844636</v>
+        <v>0.957247160302938</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.418032098285279</v>
+        <v>1.299632428266683</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.957247160302938</v>
+        <v>80</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.299632428266683</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.5992396573318344</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>4.591110489140557e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2053967880073618</v>
+        <v>1.490776509539859e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.234154758289999</v>
+        <v>7.984769164484842e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.490776509539859e-06</v>
+        <v>-0.02080087932640199</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.984769164484842e-06</v>
+        <v>0.1462002867322028</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02080087932640199</v>
+        <v>0.02176775152489792</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1462002867322028</v>
+        <v>1.904960128931071</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02176775152489792</v>
+        <v>2.491910412838614</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.925164152145566</v>
+        <v>5.236457672494771</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.491910412838614</v>
+        <v>8.571094615491085e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.236457672494771</v>
+        <v>613545548.5556108</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.571094615491085e-16</v>
+        <v>1.952912813273096e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>613545548.5556108</v>
+        <v>322.6486916125759</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.952912813273096e-07</v>
+        <v>0.0001123640054219885</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>322.6486916125759</v>
+        <v>6.79878332711931</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001123640054219885</v>
+        <v>1.468425954028935</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.79878332711931</v>
+        <v>0.005193852517805374</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.468425954028935</v>
+        <v>3.498772986330762</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005193852517805374</v>
+        <v>0.9585703171800513</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.498772986330762</v>
+        <v>1.283810229448559</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9585703171800513</v>
+        <v>47</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.283810229448559</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.6002068982915616</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>4.703577823762795e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1950411106727654</v>
+        <v>1.505978537837284e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.27886304961376</v>
+        <v>7.972316236135534e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.505978537837284e-06</v>
+        <v>-0.03207117643673316</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.972316236135534e-06</v>
+        <v>0.1102610204915064</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03207117643673316</v>
+        <v>0.01316347121829424</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1102610204915064</v>
+        <v>1.90076906742343</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01316347121829424</v>
+        <v>2.365067569557293</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.913238836394233</v>
+        <v>5.106189755725609</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.365067569557293</v>
+        <v>9.014000629637447e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.106189755725609</v>
+        <v>578709298.1870244</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.014000629637447e-16</v>
+        <v>2.067790523365923e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>578709298.1870244</v>
+        <v>301.8828939466763</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.067790523365923e-07</v>
+        <v>0.0001220861543448894</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>301.8828939466763</v>
+        <v>8.089778424408969</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001220861543448894</v>
+        <v>1.384522656819482</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.089778424408969</v>
+        <v>0.007989869153948653</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.384522656819482</v>
+        <v>3.455445072914619</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007989869153948653</v>
+        <v>0.9584831261126485</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.455445072914619</v>
+        <v>1.349365197753049</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9584831261126485</v>
+        <v>29</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.349365197753049</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.6936704273679548</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>4.804617240494196e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1564302761519579</v>
+        <v>1.523627661804665e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.317326656721313</v>
+        <v>7.954944405481463e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.523627661804665e-06</v>
+        <v>-0.04052358576291464</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.954944405481463e-06</v>
+        <v>0.08151469056629104</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04052358576291464</v>
+        <v>0.008273670777689708</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08151469056629104</v>
+        <v>1.901819203418062</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.008273670777689708</v>
+        <v>2.333344990220935</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.909566253756127</v>
+        <v>4.434582430527587</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.333344990220935</v>
+        <v>1.195104880577646e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.434582430527587</v>
+        <v>423369061.4602019</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.195104880577646e-15</v>
+        <v>2.825094534769459e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>423369061.4602019</v>
+        <v>214.2122267686279</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.825094534769459e-07</v>
+        <v>0.0001230297393407651</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>214.2122267686279</v>
+        <v>9.756600445362739</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001230297393407651</v>
+        <v>1.230227571808262</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.756600445362739</v>
+        <v>0.01171135495189418</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.230227571808262</v>
+        <v>3.315196962706855</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01171135495189418</v>
+        <v>0.9583450717714422</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.315196962706855</v>
+        <v>1.424248787836762</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9583450717714422</v>
+        <v>21</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.424248787836762</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.7304298659011701</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>4.875312439319082e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1106339886609601</v>
+        <v>1.546053017286467e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.330751314236745</v>
+        <v>7.933630806375896e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.546053017286467e-06</v>
+        <v>-0.04705839487032939</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.933630806375896e-06</v>
+        <v>0.05844295133271238</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04705839487032939</v>
+        <v>0.005624336943233925</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.05844295133271238</v>
+        <v>1.901702679789416</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.005624336943233925</v>
+        <v>2.38169870918393</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.906692327246445</v>
+        <v>4.28219460755875</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.38169870918393</v>
+        <v>1.281677273468589e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.28219460755875</v>
+        <v>406427366.6194156</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.281677273468589e-15</v>
+        <v>2.949815641021104e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>406427366.6194156</v>
+        <v>211.7115589576982</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.949815641021104e-07</v>
+        <v>0.0001152422114357159</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>211.7115589576982</v>
+        <v>8.47871157594466</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001152422114357159</v>
+        <v>1.295386109830525</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.47871157594466</v>
+        <v>0.008284595477530812</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.295386109830525</v>
+        <v>3.400607209980834</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008284595477530812</v>
+        <v>0.9593823554343893</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.400607209980834</v>
+        <v>1.367006621621077</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9593823554343893</v>
+        <v>23</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.367006621621077</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.5660184862565063</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>4.913410485466753e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.07235897967649914</v>
+        <v>1.569412853259926e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.33222379774775</v>
+        <v>7.909501781308187e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.569412853259926e-06</v>
+        <v>-0.05102331589961426</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.909501781308187e-06</v>
+        <v>0.04677309436604362</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05102331589961426</v>
+        <v>0.004790129817864503</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.04677309436604362</v>
+        <v>1.902325227561665</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004790129817864503</v>
+        <v>2.339669793095998</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.905587720183844</v>
+        <v>4.279002300241281</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.339669793095998</v>
+        <v>1.283590352109807e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.279002300241281</v>
+        <v>408305530.8535441</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.283590352109807e-15</v>
+        <v>2.937825099747394e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>408305530.8535441</v>
+        <v>213.9917201836132</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.937825099747394e-07</v>
+        <v>0.0001094605347312576</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>213.9917201836132</v>
+        <v>7.429766984890301</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001094605347312576</v>
+        <v>1.34072538986285</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.429766984890301</v>
+        <v>0.006042378861185444</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.34072538986285</v>
+        <v>3.44076038635894</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006042378861185444</v>
+        <v>0.9606449461812625</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.44076038635894</v>
+        <v>1.378983071851214</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9606449461812625</v>
+        <v>36</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.378983071851214</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.4917338661818517</v>
       </c>
     </row>
@@ -1311,72 +1251,66 @@
         <v>4.928609053348125e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.04361203497285215</v>
+        <v>1.591178133892809e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.334686337341167</v>
+        <v>7.883836299659578e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.591178133892809e-06</v>
+        <v>-0.05301050556287735</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.883836299659578e-06</v>
+        <v>0.04306069720280515</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05301050556287735</v>
+        <v>0.004664444246529531</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.04306069720280515</v>
+        <v>1.900891381731118</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.004664444246529531</v>
+        <v>2.33578381447358</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.902701590435171</v>
+        <v>4.261976753230149</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.33578381447358</v>
+        <v>1.293866090096962e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.261976753230149</v>
+        <v>415771708.708224</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.293866090096962e-15</v>
+        <v>2.886643345293269e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>415771708.708224</v>
+        <v>223.6656027236978</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.886643345293269e-07</v>
+        <v>0.0001075165792988129</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>223.6656027236978</v>
+        <v>7.361662430702523</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001075165792988129</v>
+        <v>1.356114424684953</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.361662430702523</v>
+        <v>0.005826761427181307</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.356114424684953</v>
+        <v>3.426971259522916</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.005826761427181307</v>
+        <v>0.9609811826790745</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.426971259522916</v>
+        <v>1.389750339503214</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9609811826790745</v>
+        <v>38</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.389750339503214</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.5199735439898086</v>
       </c>
     </row>
@@ -1391,72 +1325,66 @@
         <v>4.92901200761772e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.02162615293767798</v>
+        <v>1.611863639535966e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.341372380956407</v>
+        <v>7.857393858202499e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.611863639535966e-06</v>
+        <v>-0.05419524008941231</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.857393858202499e-06</v>
+        <v>0.04171496693599516</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05419524008941231</v>
+        <v>0.00467750710926016</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.04171496693599516</v>
+        <v>1.900049400185405</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00467750710926016</v>
+        <v>2.247044907372481</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.896141458905996</v>
+        <v>4.318913328117672</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.247044907372481</v>
+        <v>1.259976678364518e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.318913328117672</v>
+        <v>424219510.0335668</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.259976678364518e-15</v>
+        <v>2.831402325017765e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>424219510.0335668</v>
+        <v>226.7481657806721</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.831402325017765e-07</v>
+        <v>0.0001093668734820039</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>226.7481657806721</v>
+        <v>7.604634804643979</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001093668734820039</v>
+        <v>1.334512182346952</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.604634804643979</v>
+        <v>0.006324737751890944</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.334512182346952</v>
+        <v>3.419513767374048</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006324737751890944</v>
+        <v>0.9602414373883746</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.419513767374048</v>
+        <v>1.37891594222183</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9602414373883746</v>
+        <v>49</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.37891594222183</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.6076214939741522</v>
       </c>
     </row>
@@ -1471,72 +1399,66 @@
         <v>4.918071178065386e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.005324882164541882</v>
+        <v>1.633108114474438e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.353581320734859</v>
+        <v>7.830448763903704e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.633108114474438e-06</v>
+        <v>-0.05522841852338139</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.830448763903704e-06</v>
+        <v>0.04094740320448539</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05522841852338139</v>
+        <v>0.004727140839350072</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.04094740320448539</v>
+        <v>1.897845548274429</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004727140839350072</v>
+        <v>2.166197617800008</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.890812518622949</v>
+        <v>4.462000856468633</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.166197617800008</v>
+        <v>1.178960648789248e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.462000856468633</v>
+        <v>451091338.5313069</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.178960648789248e-15</v>
+        <v>2.669190905119708e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>451091338.5313069</v>
+        <v>239.8989162099135</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.669190905119708e-07</v>
+        <v>0.0001134375570948719</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>239.8989162099135</v>
+        <v>8.17135923159023</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001134375570948719</v>
+        <v>1.266729337914999</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.17135923159023</v>
+        <v>0.007574351794814703</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.266729337914999</v>
+        <v>3.39095020227678</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007574351794814703</v>
+        <v>0.9612236667452704</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.39095020227678</v>
+        <v>1.394983279078006</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9612236667452704</v>
+        <v>74</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.394983279078006</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.7714661823168647</v>
       </c>
     </row>
@@ -1551,72 +1473,66 @@
         <v>4.896282921214232e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.004769447528078779</v>
+        <v>1.652993812557176e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.374393248344894</v>
+        <v>7.803078110305963e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.652993812557176e-06</v>
+        <v>-0.05626305833997992</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.803078110305963e-06</v>
+        <v>0.04038901030655204</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05626305833997992</v>
+        <v>0.004797096132731175</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04038901030655204</v>
+        <v>1.90273910506513</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.004797096132731175</v>
+        <v>2.167214474854518</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.893655038622507</v>
+        <v>4.65343087639986</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.167214474854518</v>
+        <v>1.051220367092355e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.65343087639986</v>
+        <v>527955376.9902097</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.051220367092355e-15</v>
+        <v>2.283897967929162e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>527955376.9902097</v>
+        <v>293.0138854134093</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.283897967929162e-07</v>
+        <v>0.0001224046689405085</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>293.0138854134093</v>
+        <v>7.859061132533189</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001224046689405085</v>
+        <v>1.416210183803092</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.859061132533189</v>
+        <v>0.007560305023083289</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.416210183803092</v>
+        <v>3.486162029588748</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.007560305023083289</v>
+        <v>0.9599467009491125</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.486162029588748</v>
+        <v>1.430060827905756</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9599467009491125</v>
+        <v>105</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.430060827905756</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.8165411230636783</v>
       </c>
     </row>
@@ -1631,72 +1547,66 @@
         <v>4.866423631441381e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.009976359684499822</v>
+        <v>1.652354207775157e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.403932320988119</v>
+        <v>7.775490969590298e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.652354207775157e-06</v>
+        <v>-0.05659012437646386</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.775490969590298e-06</v>
+        <v>0.04057874026882172</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05659012437646386</v>
+        <v>0.004849065565546108</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04057874026882172</v>
+        <v>1.911729842873059</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004849065565546108</v>
+        <v>2.331995620286924</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.913341066710336</v>
+        <v>4.700903062230569</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.331995620286924</v>
+        <v>9.650574620247965e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.700903062230569</v>
+        <v>569830082.4892285</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>9.650574620247965e-16</v>
+        <v>2.117153354634008e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>569830082.4892285</v>
+        <v>313.3602598906207</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.117153354634008e-07</v>
+        <v>0.0001139115893103003</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>313.3602598906207</v>
+        <v>7.796037096177658</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001139115893103003</v>
+        <v>1.404156003142844</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.796037096177658</v>
+        <v>0.006923340720081462</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.404156003142844</v>
+        <v>3.605120242995818</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006923340720081462</v>
+        <v>0.9608018599709265</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.605120242995818</v>
+        <v>1.305254153507246</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9608018599709265</v>
+        <v>127</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.305254153507246</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.8569443862595625</v>
       </c>
     </row>
@@ -1711,72 +1621,66 @@
         <v>4.835695409086394e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.01570335775089842</v>
+        <v>1.628519213393901e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.433963608303944</v>
+        <v>7.748127783877622e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.628519213393901e-06</v>
+        <v>-0.05612957653966519</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.748127783877622e-06</v>
+        <v>0.0407272943484764</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05612957653966519</v>
+        <v>0.004808963465432737</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0407272943484764</v>
+        <v>1.917920635738078</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.004808963465432737</v>
+        <v>2.386884964731401</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.920812455003118</v>
+        <v>4.789551032256332</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.386884964731401</v>
+        <v>7.047181744920636e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.789551032256332</v>
+        <v>774446621.9635391</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7.047181744920636e-16</v>
+        <v>1.559192037512874e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>774446621.9635391</v>
+        <v>422.6671072407342</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.559192037512874e-07</v>
+        <v>9.684451546893928e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>422.6671072407342</v>
+        <v>7.791157962450812</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>9.684451546893928e-05</v>
+        <v>1.351713005396813</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.791157962450812</v>
+        <v>0.005878669568253684</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.351713005396813</v>
+        <v>3.587460214965686</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.005878669568253684</v>
+        <v>0.9609448566207115</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.587460214965686</v>
+        <v>1.273621069934109</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9609448566207115</v>
+        <v>127</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.273621069934109</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.9475723493486993</v>
       </c>
     </row>
@@ -1791,72 +1695,66 @@
         <v>4.807531328466608e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.02576438111910851</v>
+        <v>1.591922106367512e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.458696440854009</v>
+        <v>7.721277131303768e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.591922106367512e-06</v>
+        <v>-0.05518970037261373</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.721277131303768e-06</v>
+        <v>0.04066266851635351</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05518970037261373</v>
+        <v>0.004698971432404465</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04066266851635351</v>
+        <v>1.929568640490374</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004698971432404465</v>
+        <v>2.663481116375163</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.933876233590484</v>
+        <v>5.058633555646191</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.663481116375163</v>
+        <v>7.780085029413014e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.058633555646191</v>
+        <v>702347535.5788467</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.780085029413014e-16</v>
+        <v>1.719599140121159e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>702347535.5788467</v>
+        <v>383.7854176842394</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.719599140121159e-07</v>
+        <v>9.678197491321134e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>383.7854176842394</v>
+        <v>7.298773107463549</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.678197491321134e-05</v>
+        <v>1.468911524208526</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.298773107463549</v>
+        <v>0.005155777969000393</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.468911524208526</v>
+        <v>3.624075241278648</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.005155777969000393</v>
+        <v>0.9602293915682575</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.624075241278648</v>
+        <v>1.270845833573357</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9602293915682575</v>
+        <v>124</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.270845833573357</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.9153270364993056</v>
       </c>
     </row>
@@ -1871,72 +1769,66 @@
         <v>4.782214029352319e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.04211043344131231</v>
+        <v>1.546827573386649e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.475928264873063</v>
+        <v>7.695109696218411e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.546827573386649e-06</v>
+        <v>-0.05390946599751626</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.695109696218411e-06</v>
+        <v>0.04062733197927444</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05390946599751626</v>
+        <v>0.004556418458265219</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04062733197927444</v>
+        <v>1.930972749646696</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004556418458265219</v>
+        <v>2.509345892174808</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.932974785224117</v>
+        <v>5.315042155995343</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.509345892174808</v>
+        <v>1.077630677922944e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.315042155995343</v>
+        <v>486683895.7981349</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.077630677922944e-15</v>
+        <v>2.48707027212282e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>486683895.7981349</v>
+        <v>255.2489110790442</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.48707027212282e-07</v>
+        <v>0.0001002912881130837</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>255.2489110790442</v>
+        <v>6.995280857948268</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001002912881130837</v>
+        <v>1.382317551578083</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.995280857948268</v>
+        <v>0.004907649307366148</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.382317551578083</v>
+        <v>3.652192336645203</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.004907649307366148</v>
+        <v>0.9581253790267723</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.652192336645203</v>
+        <v>1.309616550747891</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9581253790267723</v>
+        <v>118</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.309616550747891</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.910718668457543</v>
       </c>
     </row>
@@ -2313,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.540675277143236</v>
+        <v>1.543045405095745</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.955056090379359</v>
@@ -2402,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.554371430953584</v>
+        <v>1.558524235207298</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.029978437645332</v>
@@ -2491,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582226261973621</v>
+        <v>1.582455240499841</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.817790120122147</v>
@@ -2580,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.576991220131389</v>
+        <v>1.579762833635729</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.036418507610255</v>
@@ -2669,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.554830749412274</v>
+        <v>1.558208709374988</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.848404681362837</v>
@@ -2758,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.548884228470262</v>
+        <v>1.562981293399721</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.681703194569995</v>
@@ -2847,7 +2739,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.539134367905359</v>
+        <v>1.555314215247167</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.789146198336939</v>
@@ -2936,7 +2828,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543470774048718</v>
+        <v>1.559356991686944</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.575719790966222</v>
@@ -3025,7 +2917,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.554682977823762</v>
+        <v>1.567948237420608</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.814897185796919</v>
@@ -3114,7 +3006,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.570704675422854</v>
+        <v>1.579431400925188</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.651726037460473</v>
@@ -3203,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.55818374448169</v>
+        <v>1.566450540015967</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.914781564586853</v>
@@ -3292,7 +3184,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.568671760945649</v>
+        <v>1.577381935133269</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.742216708946621</v>
@@ -3381,7 +3273,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.565808432095459</v>
+        <v>1.573982829747555</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.635621350959606</v>
@@ -3470,7 +3362,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569132977462691</v>
+        <v>1.580683192443795</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.772312306708284</v>
@@ -3559,7 +3451,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576242280278924</v>
+        <v>1.579218807512917</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.487747297350077</v>
@@ -3648,7 +3540,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.538089280016473</v>
+        <v>1.544422213186095</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.397749962071588</v>
@@ -3737,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.532557138052182</v>
+        <v>1.539348946639769</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.320914813611275</v>
@@ -3826,7 +3718,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.538154488300166</v>
+        <v>1.54125636498889</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.265914199960801</v>
@@ -3915,7 +3807,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.561385617378161</v>
+        <v>1.562249780035627</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.128078650179687</v>
@@ -4004,7 +3896,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.593272564243829</v>
+        <v>1.594243746747592</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.516614221948589</v>
@@ -4093,7 +3985,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.612267173325971</v>
+        <v>1.61076392946474</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.296520794005133</v>
@@ -4182,7 +4074,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.615098728579987</v>
+        <v>1.609329502283799</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.407989600896212</v>
@@ -4271,7 +4163,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.559354820167473</v>
+        <v>1.560789564476456</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.158288134852656</v>
@@ -4360,7 +4252,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555522338851111</v>
+        <v>1.556884109006587</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.161218707852831</v>
@@ -4449,7 +4341,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.565799709919649</v>
+        <v>1.570258878735216</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.238692995107034</v>
@@ -4538,7 +4430,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.576102813997216</v>
+        <v>1.582074131009572</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.230603130599149</v>
@@ -4627,7 +4519,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.544712355386303</v>
+        <v>1.545543838140467</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.258318052580001</v>
@@ -4716,7 +4608,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.533616593134391</v>
+        <v>1.535737786153845</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.210165946957694</v>
@@ -4805,7 +4697,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.516142705428068</v>
+        <v>1.516126006554902</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.206394754741594</v>
@@ -4894,7 +4786,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.542636863819572</v>
+        <v>1.540199876404041</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.261553532130658</v>
@@ -4983,7 +4875,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.55771381788218</v>
+        <v>1.558502789834173</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.177493978609167</v>
@@ -5072,7 +4964,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556843242685566</v>
+        <v>1.555799438716559</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.213058166406245</v>
@@ -5161,7 +5053,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.553309389036583</v>
+        <v>1.546513313623209</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.179036341740729</v>
@@ -5250,7 +5142,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.537817362360296</v>
+        <v>1.52768995332466</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.252534816275569</v>
@@ -5339,7 +5231,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.463561509825718</v>
+        <v>1.457751501652243</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.872262697273539</v>
@@ -5428,7 +5320,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.446506069318796</v>
+        <v>1.435478012276457</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.905844378999694</v>
@@ -5517,7 +5409,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.426409713427583</v>
+        <v>1.420494524051875</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.932019730025955</v>
@@ -5606,7 +5498,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.434974171521593</v>
+        <v>1.42799803455646</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.857727135684306</v>
@@ -5695,7 +5587,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.43852532883561</v>
+        <v>1.429343490402254</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.875822633885424</v>
@@ -5784,7 +5676,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.423159421513427</v>
+        <v>1.41492118404744</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.885375788026164</v>
@@ -5873,7 +5765,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.41737536144797</v>
+        <v>1.406440607879164</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.883092360831955</v>
@@ -5962,7 +5854,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.434472741670221</v>
+        <v>1.424772376455294</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.849786824853357</v>
@@ -6051,7 +5943,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.429342870186816</v>
+        <v>1.417209216826278</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.837895177988719</v>
@@ -6140,7 +6032,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.42358834739716</v>
+        <v>1.413421070882241</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.856642322116541</v>
@@ -6229,7 +6121,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.404643237305712</v>
+        <v>1.394445360847506</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.843803665473531</v>
@@ -6318,7 +6210,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.388806664057981</v>
+        <v>1.377275273169547</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.881988792554691</v>
@@ -6407,7 +6299,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.392613722514927</v>
+        <v>1.380104874961288</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.841432252680469</v>
@@ -6496,7 +6388,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.387474946483628</v>
+        <v>1.381726754148606</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.848927444099187</v>
@@ -6585,7 +6477,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.37678763070431</v>
+        <v>1.373994467135493</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.922905355417579</v>
@@ -6674,7 +6566,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.430593665502528</v>
+        <v>1.429529786908733</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.455661200236016</v>
@@ -6763,7 +6655,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.453901101229247</v>
+        <v>1.454192072770308</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.385268349241611</v>
@@ -6852,7 +6744,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.475523110662546</v>
+        <v>1.474489796489007</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.227163411535173</v>
@@ -6941,7 +6833,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.492035521232623</v>
+        <v>1.496177158847707</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.38153069281168</v>
@@ -7030,7 +6922,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.484451814722484</v>
+        <v>1.491861618101029</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.36820756896879</v>
@@ -7119,7 +7011,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.492071022444094</v>
+        <v>1.497796982607781</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.412071007396872</v>
@@ -7208,7 +7100,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.497818828568582</v>
+        <v>1.503366132736343</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.405462096607299</v>
@@ -7297,7 +7189,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.494166692494814</v>
+        <v>1.502300698398377</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.414300113556838</v>
@@ -7386,7 +7278,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.502022916687726</v>
+        <v>1.512057931270045</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.381815259880963</v>
@@ -7475,7 +7367,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.515605735818683</v>
+        <v>1.518338280145884</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.305669395879979</v>
@@ -7564,7 +7456,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.536162553935926</v>
+        <v>1.536679979970823</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.302359631839262</v>
@@ -7653,7 +7545,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.556798892719058</v>
+        <v>1.558911754462798</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.418328795234341</v>
@@ -7939,7 +7831,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.591955024993034</v>
+        <v>1.605740723717222</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.048248954767939</v>
@@ -8028,7 +7920,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.597177424275616</v>
+        <v>1.611033874168614</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.914411430796778</v>
@@ -8117,7 +8009,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.624916420344688</v>
+        <v>1.634168397953072</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.197958889199795</v>
@@ -8206,7 +8098,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.622737812310182</v>
+        <v>1.637998801156611</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.185397470111031</v>
@@ -8295,7 +8187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608555096053166</v>
+        <v>1.620610642771806</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.127700166814802</v>
@@ -8384,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.608485188093692</v>
+        <v>1.619122429647802</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.185796802218997</v>
@@ -8473,7 +8365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.606882065994317</v>
+        <v>1.613584766643473</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.741677793543415</v>
@@ -8562,7 +8454,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.608150745011389</v>
+        <v>1.614598991398321</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.111792272782441</v>
@@ -8651,7 +8543,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.597238254402895</v>
+        <v>1.598687268923809</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.922563879891024</v>
@@ -8740,7 +8632,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.59210233217396</v>
+        <v>1.591082298202236</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.074576712214039</v>
@@ -8829,7 +8721,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.596366040018008</v>
+        <v>1.596663195131585</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.09313226614832</v>
@@ -8918,7 +8810,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615260522363108</v>
+        <v>1.618858588774204</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.823376361865724</v>
@@ -9007,7 +8899,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.643168424403876</v>
+        <v>1.642821836105842</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.270883487372877</v>
@@ -9096,7 +8988,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.647227068334038</v>
+        <v>1.645915282510549</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.19593128561849</v>
@@ -9185,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.649361813955733</v>
+        <v>1.6452494119301</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.170134690778166</v>
@@ -9274,7 +9166,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641376958644009</v>
+        <v>1.63151752742978</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.945845761641826</v>
@@ -9363,7 +9255,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.657885475621677</v>
+        <v>1.64427758028141</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.917804290893468</v>
@@ -9452,7 +9344,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.66423827413513</v>
+        <v>1.655803406764814</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.082868229192327</v>
@@ -9541,7 +9433,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.670825880400661</v>
+        <v>1.668271518705966</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.871421407592347</v>
@@ -9630,7 +9522,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.682566845526204</v>
+        <v>1.681009700498064</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.023449876931047</v>
@@ -9719,7 +9611,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.690879466655764</v>
+        <v>1.692474300083465</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.117062119538474</v>
@@ -9808,7 +9700,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.696584608399286</v>
+        <v>1.693862842673476</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.112435448943517</v>
@@ -9897,7 +9789,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.684389601673519</v>
+        <v>1.68333755402099</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.150229115488127</v>
@@ -9986,7 +9878,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.682383452371437</v>
+        <v>1.682226222769672</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.103170409526899</v>
@@ -10075,7 +9967,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.690460712638661</v>
+        <v>1.690773778814928</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.859357651414036</v>
@@ -10164,7 +10056,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.693367874963299</v>
+        <v>1.696674467052069</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.099782999809624</v>
@@ -10253,7 +10145,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.686991217062858</v>
+        <v>1.687039154786814</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.116113083401399</v>
@@ -10342,7 +10234,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.668341393764894</v>
+        <v>1.672135882942287</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.964133028159606</v>
@@ -10431,7 +10323,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.654131103910468</v>
+        <v>1.661190346574622</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.207494297006484</v>
@@ -10520,7 +10412,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.652182644916549</v>
+        <v>1.652633663049898</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.812477196823814</v>
@@ -10609,7 +10501,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.643579611991477</v>
+        <v>1.656997116634259</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.123697491604873</v>
@@ -10698,7 +10590,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.645024331105029</v>
+        <v>1.657341939392272</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.25087012340685</v>
@@ -10787,7 +10679,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.632621039176888</v>
+        <v>1.646586910571269</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.272976174603015</v>
@@ -10876,7 +10768,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633212122429284</v>
+        <v>1.646018095566286</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.092409105437328</v>
@@ -10965,7 +10857,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.615021586423982</v>
+        <v>1.621536946307419</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.985254001485151</v>
@@ -11054,7 +10946,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.616275189247149</v>
+        <v>1.621876393786925</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.01455744363525</v>
@@ -11143,7 +11035,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610730756896715</v>
+        <v>1.618726921613789</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.089350382626518</v>
@@ -11232,7 +11124,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.612432533437186</v>
+        <v>1.620498651236486</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.168410915591368</v>
@@ -11321,7 +11213,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625870358529643</v>
+        <v>1.628039757131323</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.969094134403234</v>
@@ -11410,7 +11302,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.634163283749028</v>
+        <v>1.631858488987999</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.908803881701896</v>
@@ -11499,7 +11391,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.638992597479084</v>
+        <v>1.626083083700959</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.987072618476378</v>
@@ -11588,7 +11480,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639623970453738</v>
+        <v>1.629393036627679</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.898152652663975</v>
@@ -11677,7 +11569,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.646538042056024</v>
+        <v>1.632227047708733</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.736775542526799</v>
@@ -11766,7 +11658,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.635845229288816</v>
+        <v>1.617612572459909</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.926421270687617</v>
@@ -11855,7 +11747,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.649972227843696</v>
+        <v>1.638742854092295</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.734015024653908</v>
@@ -11944,7 +11836,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.647917258427308</v>
+        <v>1.63080286124005</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.112976559406239</v>
@@ -12033,7 +11925,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.64618160902405</v>
+        <v>1.63357858937936</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.922150966245178</v>
@@ -12122,7 +12014,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.661063643903439</v>
+        <v>1.647124842023826</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.926002103641969</v>
@@ -12211,7 +12103,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.652639742854237</v>
+        <v>1.637286605977835</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.628986359479173</v>
@@ -12300,7 +12192,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.650620438175531</v>
+        <v>1.640642945577125</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.096226942337458</v>
@@ -12389,7 +12281,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.649657792310449</v>
+        <v>1.634490831890468</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.735899996406727</v>
@@ -12478,7 +12370,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.648501445846781</v>
+        <v>1.630372626249727</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.058374382617414</v>
@@ -12567,7 +12459,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.652946506992908</v>
+        <v>1.633239905654546</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.01550755671083</v>
@@ -12656,7 +12548,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.652252213305486</v>
+        <v>1.639707335281162</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.894415210633701</v>
@@ -12745,7 +12637,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.636956698496213</v>
+        <v>1.628141387433462</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.984815516036791</v>
@@ -12834,7 +12726,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.626345999799579</v>
+        <v>1.620029331621406</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.935894865813264</v>
@@ -12923,7 +12815,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.629211080978509</v>
+        <v>1.622905194820443</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.043357834215207</v>
@@ -13012,7 +12904,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.626847450001338</v>
+        <v>1.617507779589394</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.74996957264796</v>
@@ -13101,7 +12993,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.623902460685165</v>
+        <v>1.617106493417682</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.916061709936382</v>
@@ -13190,7 +13082,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.61463332784758</v>
+        <v>1.606638712086841</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.121273919260227</v>
@@ -13279,7 +13171,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.624861478786844</v>
+        <v>1.614889027409709</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.105255685933641</v>
@@ -13565,7 +13457,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.635195573987474</v>
+        <v>1.595075655232144</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.173648061412047</v>
@@ -13654,7 +13546,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.644519090038322</v>
+        <v>1.606775242709301</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.979860072257414</v>
@@ -13743,7 +13635,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.655807380360256</v>
+        <v>1.618833518684003</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.668758673328228</v>
@@ -13832,7 +13724,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.669714625308772</v>
+        <v>1.634096607801777</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.876472988737761</v>
@@ -13921,7 +13813,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.686461000330685</v>
+        <v>1.649500357458122</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.278955770486418</v>
@@ -14010,7 +13902,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.673476261964449</v>
+        <v>1.638293403651321</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.728122752952372</v>
@@ -14099,7 +13991,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.684398604580951</v>
+        <v>1.645989356106109</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.912167913349441</v>
@@ -14188,7 +14080,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.683134232270486</v>
+        <v>1.642803899639802</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.109875999331046</v>
@@ -14277,7 +14169,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.683885977175881</v>
+        <v>1.639648937831695</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.143491033099897</v>
@@ -14366,7 +14258,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.689692849564004</v>
+        <v>1.650229359270121</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.048982325747713</v>
@@ -14455,7 +14347,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.685898817628504</v>
+        <v>1.649660932114773</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.069975046756569</v>
@@ -14544,7 +14436,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695737232822768</v>
+        <v>1.659698912719027</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.056297988657042</v>
@@ -14633,7 +14525,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.696858434268433</v>
+        <v>1.65705520429303</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.793036216968868</v>
@@ -14722,7 +14614,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.710975830157816</v>
+        <v>1.675393233278456</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.758825879342383</v>
@@ -14811,7 +14703,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.715085586115325</v>
+        <v>1.67723482496134</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.211049907000531</v>
@@ -14900,7 +14792,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.702302437969356</v>
+        <v>1.653979995707098</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.218292300063763</v>
@@ -14989,7 +14881,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.701141364725997</v>
+        <v>1.651178013310479</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.164491587602919</v>
@@ -15078,7 +14970,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.697068604129606</v>
+        <v>1.646416567378757</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.254745366292852</v>
@@ -15167,7 +15059,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690432403504909</v>
+        <v>1.642606225744555</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.130800943735299</v>
@@ -15256,7 +15148,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.696565965291092</v>
+        <v>1.64924690956218</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.042038767750761</v>
@@ -15345,7 +15237,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.710655422707048</v>
+        <v>1.658356701738242</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.245918291580693</v>
@@ -15434,7 +15326,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.716523011869869</v>
+        <v>1.665472039879216</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.254270641790291</v>
@@ -15523,7 +15415,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.716444067096487</v>
+        <v>1.666969764158388</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.164545549391393</v>
@@ -15612,7 +15504,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.717219946538076</v>
+        <v>1.671416311409468</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.315262613499965</v>
@@ -15701,7 +15593,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.712094607849558</v>
+        <v>1.660244082695922</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.333852282235946</v>
@@ -15790,7 +15682,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.708749018950541</v>
+        <v>1.655105837610664</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.236565164318191</v>
@@ -15879,7 +15771,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.694494388976204</v>
+        <v>1.645970971987953</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.861886825642418</v>
@@ -15968,7 +15860,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.689425361707223</v>
+        <v>1.642341087122563</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.452531089298599</v>
@@ -16057,7 +15949,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.687825772084778</v>
+        <v>1.636662846023346</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.71082327968817</v>
@@ -16146,7 +16038,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.688810688792931</v>
+        <v>1.636049826201394</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.707107517203338</v>
@@ -16235,7 +16127,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.66371207400102</v>
+        <v>1.625978470446285</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.621708044329652</v>
@@ -16324,7 +16216,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.658664182573149</v>
+        <v>1.616779993395417</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.522409784975257</v>
@@ -16413,7 +16305,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.652796324466056</v>
+        <v>1.614721828722046</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.561473776382847</v>
@@ -16502,7 +16394,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.648338193662452</v>
+        <v>1.609095511816677</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.698934969392995</v>
@@ -16591,7 +16483,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618514295569893</v>
+        <v>1.579027796648916</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.792403060097434</v>
@@ -16680,7 +16572,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627354999306444</v>
+        <v>1.58694862500613</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.640609497436481</v>
@@ -16769,7 +16661,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.632698501798833</v>
+        <v>1.592605201950869</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.729841825752004</v>
@@ -16858,7 +16750,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.632737432996911</v>
+        <v>1.58892502990459</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.627152607963926</v>
@@ -16947,7 +16839,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.628542022434168</v>
+        <v>1.585124145755313</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.690486466269352</v>
@@ -17036,7 +16928,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.626593644678493</v>
+        <v>1.584018783041799</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.592741358803861</v>
@@ -17125,7 +17017,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.621064096968499</v>
+        <v>1.5782150207803</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.772077448629829</v>
@@ -17214,7 +17106,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.62907366738866</v>
+        <v>1.578099683115917</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.588865893392008</v>
@@ -17303,7 +17195,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.61159312526983</v>
+        <v>1.559559919827734</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.683296929944849</v>
@@ -17392,7 +17284,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591929887732483</v>
+        <v>1.541190212343408</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.625055574791542</v>
@@ -17481,7 +17373,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.617867779903649</v>
+        <v>1.56483980458631</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.459200487790036</v>
@@ -17570,7 +17462,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.620079228623455</v>
+        <v>1.56483529639058</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.968768539041477</v>
@@ -17659,7 +17551,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.619685249973564</v>
+        <v>1.571212562342418</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.355666874253854</v>
@@ -17748,7 +17640,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.628213895183322</v>
+        <v>1.571894566492315</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.98986070398765</v>
@@ -17837,7 +17729,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.628350389656084</v>
+        <v>1.572393759919485</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.327796886160721</v>
@@ -17926,7 +17818,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.649572824500913</v>
+        <v>1.588356538032373</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.97414433039887</v>
@@ -18015,7 +17907,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.638545456479291</v>
+        <v>1.582388752135923</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.081695631936892</v>
@@ -18104,7 +17996,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.608010239690058</v>
+        <v>1.560831754524155</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.713497635404728</v>
@@ -18193,7 +18085,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.61081853356304</v>
+        <v>1.563867098618814</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.809188007202901</v>
@@ -18282,7 +18174,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.610120533371967</v>
+        <v>1.56206302179709</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.670551695778061</v>
@@ -18371,7 +18263,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.611989815949913</v>
+        <v>1.570362822446715</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.62141446058227</v>
@@ -18460,7 +18352,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.627340634465437</v>
+        <v>1.58302969025809</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.840814927281654</v>
@@ -18549,7 +18441,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.627762191478628</v>
+        <v>1.587672368825097</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.823643129355473</v>
@@ -18638,7 +18530,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.644726167616533</v>
+        <v>1.602279412643487</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.630771380361667</v>
@@ -18727,7 +18619,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.648261598001984</v>
+        <v>1.609302599347356</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.625768832958326</v>
@@ -18816,7 +18708,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.633689005968806</v>
+        <v>1.596588020533385</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.639482432367327</v>
@@ -18905,7 +18797,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.645420745014186</v>
+        <v>1.606458380261708</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.580036720530714</v>
@@ -19191,7 +19083,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.819288306715493</v>
+        <v>1.802822261971559</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.294862087291181</v>
@@ -19280,7 +19172,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.826733186430021</v>
+        <v>1.812328161037981</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.864857671914651</v>
@@ -19369,7 +19261,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.834532776159909</v>
+        <v>1.82460174703504</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.816017038524483</v>
@@ -19458,7 +19350,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.833400238830945</v>
+        <v>1.826214348428357</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.042933566703279</v>
@@ -19547,7 +19439,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.819049448479239</v>
+        <v>1.800727340936898</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.936147372455167</v>
@@ -19636,7 +19528,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.817207680935758</v>
+        <v>1.801856531419501</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.630472356797838</v>
@@ -19725,7 +19617,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.817589678330591</v>
+        <v>1.801263529410284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.69525594746407</v>
@@ -19814,7 +19706,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.818547267760182</v>
+        <v>1.806680863364563</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.623003845042483</v>
@@ -19903,7 +19795,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.829116165231712</v>
+        <v>1.815497189419126</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.62726738715206</v>
@@ -19992,7 +19884,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.825446736992974</v>
+        <v>1.816076133919514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.354511243239514</v>
@@ -20081,7 +19973,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.826495602930928</v>
+        <v>1.818407814485674</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.531898469157052</v>
@@ -20170,7 +20062,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.832037117182225</v>
+        <v>1.822709001697763</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.6289701244663</v>
@@ -20259,7 +20151,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.83462947703321</v>
+        <v>1.820689079106778</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.829776778046527</v>
@@ -20348,7 +20240,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.838842940795363</v>
+        <v>1.823743549573356</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.478474248726819</v>
@@ -20437,7 +20329,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.834314044258185</v>
+        <v>1.819645610931804</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.563364216330035</v>
@@ -20526,7 +20418,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.830544245945262</v>
+        <v>1.813996991432628</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.270966643896717</v>
@@ -20615,7 +20507,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.832041113665881</v>
+        <v>1.813222215162324</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.257487523365647</v>
@@ -20704,7 +20596,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.830580959784621</v>
+        <v>1.80744797507029</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.862852207335727</v>
@@ -20793,7 +20685,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.833656622247081</v>
+        <v>1.817005857905438</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.818962493047341</v>
@@ -20882,7 +20774,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.862679622062087</v>
+        <v>1.851737218410054</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.985681855004547</v>
@@ -20971,7 +20863,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.869978694318303</v>
+        <v>1.861688170500668</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.686817516385029</v>
@@ -21060,7 +20952,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.869442237172689</v>
+        <v>1.859868881065925</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.405040317679929</v>
@@ -21149,7 +21041,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.864899676411354</v>
+        <v>1.858535164717013</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.683810486046425</v>
@@ -21238,7 +21130,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.866217778209877</v>
+        <v>1.858262856259385</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.624519191875283</v>
@@ -21327,7 +21219,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.882917119910282</v>
+        <v>1.871693694323346</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.497812936232046</v>
@@ -21416,7 +21308,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.87540110032915</v>
+        <v>1.861893158256076</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.82069981345494</v>
@@ -21505,7 +21397,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.863937860848916</v>
+        <v>1.856934378761591</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.623901898425313</v>
@@ -21594,7 +21486,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.859541872168365</v>
+        <v>1.856684942640243</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.787389991175045</v>
@@ -21683,7 +21575,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.840408583723551</v>
+        <v>1.836394760593964</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.445271078173993</v>
@@ -21772,7 +21664,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.841375054183096</v>
+        <v>1.835335578674642</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.582871853148815</v>
@@ -21861,7 +21753,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.840425265382546</v>
+        <v>1.842077256197538</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.331527502003765</v>
@@ -21950,7 +21842,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.841139514643406</v>
+        <v>1.84303374290964</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.704907045628101</v>
@@ -22039,7 +21931,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.835395948698186</v>
+        <v>1.844760015985471</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.110824671977373</v>
@@ -22128,7 +22020,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.838678842293477</v>
+        <v>1.844299596236746</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.568289853662888</v>
@@ -22217,7 +22109,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.805083373146356</v>
+        <v>1.810309746365508</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.293525888259175</v>
@@ -22306,7 +22198,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.798600889707305</v>
+        <v>1.80625494535933</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.101077854077013</v>
@@ -22395,7 +22287,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.794305880511319</v>
+        <v>1.800458114820017</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.305090359908537</v>
@@ -22484,7 +22376,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.789202144972952</v>
+        <v>1.790370812881438</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.43852715468351</v>
@@ -22573,7 +22465,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.786239798623254</v>
+        <v>1.78694480925656</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.177307833328058</v>
@@ -22662,7 +22554,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.771903318075408</v>
+        <v>1.771532513239755</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.038659368499339</v>
@@ -22751,7 +22643,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.770378882970159</v>
+        <v>1.766876240677156</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.163661984093208</v>
@@ -22840,7 +22732,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.771493341479008</v>
+        <v>1.760094102390321</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.051832180901701</v>
@@ -22929,7 +22821,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.76568914375956</v>
+        <v>1.755530944368326</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.01404173462363</v>
@@ -23018,7 +22910,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.764195121192577</v>
+        <v>1.759213958317502</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.314095829105119</v>
@@ -23107,7 +22999,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.759361110345088</v>
+        <v>1.756353907565187</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.867731100850121</v>
@@ -23196,7 +23088,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.755508050486398</v>
+        <v>1.75101812494959</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.273616015841254</v>
@@ -23285,7 +23177,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.757067252163988</v>
+        <v>1.753536517457851</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.975807364064615</v>
@@ -23374,7 +23266,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.772000959664676</v>
+        <v>1.757893652507735</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.925349170258963</v>
@@ -23463,7 +23355,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.749882485490597</v>
+        <v>1.748908740032257</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.844648923479222</v>
@@ -23552,7 +23444,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.762476766365263</v>
+        <v>1.759743580764322</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.372015391592256</v>
@@ -23641,7 +23533,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.755766180466787</v>
+        <v>1.751101858210989</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.203658799534415</v>
@@ -23730,7 +23622,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.758050984428127</v>
+        <v>1.753581181033247</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.685401433385261</v>
@@ -23819,7 +23711,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.763396471272911</v>
+        <v>1.757097099280562</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.534170973128082</v>
@@ -23908,7 +23800,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.767339802247708</v>
+        <v>1.758735666059405</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.10145750088551</v>
@@ -23997,7 +23889,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.753360191838197</v>
+        <v>1.748030375304457</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.788036596911789</v>
@@ -24086,7 +23978,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.756059263106533</v>
+        <v>1.752492886798869</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.628901803205073</v>
@@ -24175,7 +24067,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.75410301808053</v>
+        <v>1.749639565615268</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.736490456761659</v>
@@ -24264,7 +24156,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.761159380638297</v>
+        <v>1.754715698634753</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.283823181544031</v>
@@ -24353,7 +24245,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.761425736534746</v>
+        <v>1.746594144437783</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.44632664533207</v>
@@ -24442,7 +24334,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.76323065275803</v>
+        <v>1.744386568017213</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.34057538708795</v>
@@ -24531,7 +24423,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.764545211225465</v>
+        <v>1.743828152291985</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.856276177605699</v>
@@ -24817,7 +24709,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.539242019745286</v>
+        <v>1.53520443363583</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.831333980106742</v>
@@ -24906,7 +24798,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552443867546942</v>
+        <v>1.553885569488675</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.936906544976985</v>
@@ -24995,7 +24887,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568128859333941</v>
+        <v>1.566652896917578</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.799074188539421</v>
@@ -25084,7 +24976,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.57705926693962</v>
+        <v>1.574175236329905</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.848401016011145</v>
@@ -25173,7 +25065,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.561881775979234</v>
+        <v>1.555756431220735</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.814032309506487</v>
@@ -25262,7 +25154,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570434820965017</v>
+        <v>1.567379515360128</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.470686293435528</v>
@@ -25351,7 +25243,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.568417674277698</v>
+        <v>1.565843218352258</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.879704970441457</v>
@@ -25440,7 +25332,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.570353673378547</v>
+        <v>1.566331176382517</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.765107809430008</v>
@@ -25529,7 +25421,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.578483121593516</v>
+        <v>1.570597880665306</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.914505532957021</v>
@@ -25618,7 +25510,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.582040061205355</v>
+        <v>1.572482906829108</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.554042366955357</v>
@@ -25707,7 +25599,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.584540835126096</v>
+        <v>1.578380626374202</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.835568222603758</v>
@@ -25796,7 +25688,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.595540151633689</v>
+        <v>1.583059616349227</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.497975391992337</v>
@@ -25885,7 +25777,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.580776205789063</v>
+        <v>1.574793605263066</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.244088166118768</v>
@@ -25974,7 +25866,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.575749025760691</v>
+        <v>1.571191390238677</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.196820392479343</v>
@@ -26063,7 +25955,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.560312583358884</v>
+        <v>1.544365045437081</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.01582510461769</v>
@@ -26152,7 +26044,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.546235358163472</v>
+        <v>1.530144213052776</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.01432423428782</v>
@@ -26241,7 +26133,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.540243283347839</v>
+        <v>1.520256395587605</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.843083212920434</v>
@@ -26330,7 +26222,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540294868588306</v>
+        <v>1.518242627351668</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.528738259483325</v>
@@ -26419,7 +26311,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.523112813594052</v>
+        <v>1.509132607247503</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.595877201539884</v>
@@ -26508,7 +26400,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535237404207639</v>
+        <v>1.522262586860843</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.531897219446296</v>
@@ -26597,7 +26489,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.542713739160045</v>
+        <v>1.529108425752475</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.647503980240099</v>
@@ -26686,7 +26578,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.548138564608822</v>
+        <v>1.533434294553867</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.769827300431424</v>
@@ -26775,7 +26667,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542391383331939</v>
+        <v>1.533414679004041</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.651132877971489</v>
@@ -26864,7 +26756,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.544743771971697</v>
+        <v>1.538400402097624</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.650462950844222</v>
@@ -26953,7 +26845,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55778865493856</v>
+        <v>1.55052850381637</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.498983190763802</v>
@@ -27042,7 +26934,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.564038902778094</v>
+        <v>1.553677230790809</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.63282256235438</v>
@@ -27131,7 +27023,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.554886286734157</v>
+        <v>1.546375592822283</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.471119673614736</v>
@@ -27220,7 +27112,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.57567620430159</v>
+        <v>1.563632064412249</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.722589897245599</v>
@@ -27309,7 +27201,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.57136243824868</v>
+        <v>1.560840975932924</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.824770383340705</v>
@@ -27398,7 +27290,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.590312031473806</v>
+        <v>1.583027250367395</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.582556573113307</v>
@@ -27487,7 +27379,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.602062610082235</v>
+        <v>1.595958657691215</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.829790789355338</v>
@@ -27576,7 +27468,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.620225669584333</v>
+        <v>1.612408291411574</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.747603313448024</v>
@@ -27665,7 +27557,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63224910904465</v>
+        <v>1.628046616686094</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.769311422755226</v>
@@ -27754,7 +27646,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633823704501818</v>
+        <v>1.629573290811045</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.916556429071447</v>
@@ -27843,7 +27735,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.615016510665988</v>
+        <v>1.611222089137418</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.867170100329702</v>
@@ -27932,7 +27824,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.605418487759835</v>
+        <v>1.603088608697629</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.875231939716605</v>
@@ -28021,7 +27913,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.600673681121253</v>
+        <v>1.598944204066488</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.914512607592676</v>
@@ -28110,7 +28002,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608160477264887</v>
+        <v>1.603999588092893</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.948570207190426</v>
@@ -28199,7 +28091,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.606689421076201</v>
+        <v>1.601142948942557</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.868202027526244</v>
@@ -28288,7 +28180,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.585066581923177</v>
+        <v>1.583124359219868</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.915452175981114</v>
@@ -28377,7 +28269,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.586491421356421</v>
+        <v>1.585982241440744</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.020976259397514</v>
@@ -28466,7 +28358,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.597252536806872</v>
+        <v>1.59761063148</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.854707354371071</v>
@@ -28555,7 +28447,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.589937001982185</v>
+        <v>1.588364931303635</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.805179506175343</v>
@@ -28644,7 +28536,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.575990436293256</v>
+        <v>1.575520926161114</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.823452333328117</v>
@@ -28733,7 +28625,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.583936264068797</v>
+        <v>1.581406702353904</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.636282738540793</v>
@@ -28822,7 +28714,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.578606249324276</v>
+        <v>1.577345206996672</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.886206689999823</v>
@@ -28911,7 +28803,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.585527339025824</v>
+        <v>1.587835593753645</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.800275416994025</v>
@@ -29000,7 +28892,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.606076276516232</v>
+        <v>1.604520430238144</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.865542253748465</v>
@@ -29089,7 +28981,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.584626529363533</v>
+        <v>1.58657080406858</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.816893418939743</v>
@@ -29178,7 +29070,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.597307301078418</v>
+        <v>1.59432381051597</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.75422733054361</v>
@@ -29267,7 +29159,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.593662419189377</v>
+        <v>1.591536632227724</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.814725611422297</v>
@@ -29356,7 +29248,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.59899275621991</v>
+        <v>1.592132678262348</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.783886007078491</v>
@@ -29445,7 +29337,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.5941486888076</v>
+        <v>1.584868138914803</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.749509987123536</v>
@@ -29534,7 +29426,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.602092262996012</v>
+        <v>1.583900666434608</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.494747446935729</v>
@@ -29623,7 +29515,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.582204319198329</v>
+        <v>1.568647924504719</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.823061682629903</v>
@@ -29712,7 +29604,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.582028133649183</v>
+        <v>1.566291448900665</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.825303306773685</v>
@@ -29801,7 +29693,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.572247146549847</v>
+        <v>1.553767091773358</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.888656149583516</v>
@@ -29890,7 +29782,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.57543339802839</v>
+        <v>1.552705855109632</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.614316946584387</v>
@@ -29979,7 +29871,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.586355785605276</v>
+        <v>1.563416586597768</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.228685476012153</v>
@@ -30068,7 +29960,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.567916867893983</v>
+        <v>1.548396255988578</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.074158463804906</v>
@@ -30157,7 +30049,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.57350410172731</v>
+        <v>1.554180239849292</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.979758437928836</v>
@@ -30443,7 +30335,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.710318929212567</v>
+        <v>1.74595607691718</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.102096620163321</v>
@@ -30532,7 +30424,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.750130593569152</v>
+        <v>1.780822807456386</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.978030301128884</v>
@@ -30621,7 +30513,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.803046929605627</v>
+        <v>1.831915919454735</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.785058169506895</v>
@@ -30710,7 +30602,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.820085419272355</v>
+        <v>1.84405181533669</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.983908878434228</v>
@@ -30799,7 +30691,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.793615680212146</v>
+        <v>1.814235526417671</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.143616075821489</v>
@@ -30888,7 +30780,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.805559084881674</v>
+        <v>1.83127806083099</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.915849374223697</v>
@@ -30977,7 +30869,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.823925383807251</v>
+        <v>1.847779379099991</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.16742888159633</v>
@@ -31066,7 +30958,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.835667875829425</v>
+        <v>1.857676712712927</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.169553707941421</v>
@@ -31155,7 +31047,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.863397191087409</v>
+        <v>1.883385405474024</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.249224912055328</v>
@@ -31244,7 +31136,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.866517430661922</v>
+        <v>1.886484049850081</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.174245547087548</v>
@@ -31333,7 +31225,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.873688015542144</v>
+        <v>1.894195793452174</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.70295708694721</v>
@@ -31422,7 +31314,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.876385746300686</v>
+        <v>1.893802559696672</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.165307141020521</v>
@@ -31511,7 +31403,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.87210424000124</v>
+        <v>1.887929387344496</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.348432602200721</v>
@@ -31600,7 +31492,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.869767130764994</v>
+        <v>1.884474187981407</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.216110148650627</v>
@@ -31689,7 +31581,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.838908816904399</v>
+        <v>1.851766396129045</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.182636610226317</v>
@@ -31778,7 +31670,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.799504501356062</v>
+        <v>1.815624721196616</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.241393700401039</v>
@@ -31867,7 +31759,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.775726020733734</v>
+        <v>1.79059195684362</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.104762117726411</v>
@@ -31956,7 +31848,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.762255416195015</v>
+        <v>1.781070861990757</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.588382680233459</v>
@@ -32045,7 +31937,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.769123154482499</v>
+        <v>1.796791076856403</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.242937154557655</v>
@@ -32134,7 +32026,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.818294070432181</v>
+        <v>1.843545534127175</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.517216405531574</v>
@@ -32223,7 +32115,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.821010502759626</v>
+        <v>1.84500100407176</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.514528698648874</v>
@@ -32312,7 +32204,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.818602993879739</v>
+        <v>1.843729368133699</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.394661100598289</v>
@@ -32401,7 +32293,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.816278219631924</v>
+        <v>1.847409042350165</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.623163160481069</v>
@@ -32490,7 +32382,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.798944695092414</v>
+        <v>1.834012900670343</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.319294456746182</v>
@@ -32579,7 +32471,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.804020801303449</v>
+        <v>1.838343530696427</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.514465957915694</v>
@@ -32668,7 +32560,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.796999668813144</v>
+        <v>1.830911953515838</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.230149014494949</v>
@@ -32757,7 +32649,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.785214868537083</v>
+        <v>1.82546214190981</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.340699645230889</v>
@@ -32846,7 +32738,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.790952121396628</v>
+        <v>1.832370681754017</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.992409196385128</v>
@@ -32935,7 +32827,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.757226405534629</v>
+        <v>1.799682341179475</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.187453751147698</v>
@@ -33024,7 +32916,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.783783698448961</v>
+        <v>1.823793412915447</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.008137501294668</v>
@@ -33113,7 +33005,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.808752363863974</v>
+        <v>1.848064063237926</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.262615036241234</v>
@@ -33202,7 +33094,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.833088251598685</v>
+        <v>1.871716886805775</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.240388801731116</v>
@@ -33291,7 +33183,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.848214254351727</v>
+        <v>1.884409752069337</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.878379997957263</v>
@@ -33380,7 +33272,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.834552038317138</v>
+        <v>1.871377309042819</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.947045353420688</v>
@@ -33469,7 +33361,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.805276133211172</v>
+        <v>1.83869175609646</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.170115001147822</v>
@@ -33558,7 +33450,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.803005036973935</v>
+        <v>1.839961884192601</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.380628375103896</v>
@@ -33647,7 +33539,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.782286195703125</v>
+        <v>1.824459380300278</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.159439083618334</v>
@@ -33736,7 +33628,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.77681155274325</v>
+        <v>1.811587709982713</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.991227558856506</v>
@@ -33825,7 +33717,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.792700521611152</v>
+        <v>1.815480845859033</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.017535459369029</v>
@@ -33914,7 +33806,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.782359519842853</v>
+        <v>1.802397378794537</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.162453836945642</v>
@@ -34003,7 +33895,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.786808391701505</v>
+        <v>1.80517670192649</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.97631623122056</v>
@@ -34092,7 +33984,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.758882594064669</v>
+        <v>1.779905772254954</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.232110412466141</v>
@@ -34181,7 +34073,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.740206464759999</v>
+        <v>1.761154101114699</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.341525577556296</v>
@@ -34270,7 +34162,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.75543884744451</v>
+        <v>1.777814405460782</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.525370970766333</v>
@@ -34359,7 +34251,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.737872370525388</v>
+        <v>1.767315875533246</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.353876022236505</v>
@@ -34448,7 +34340,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.708327847842156</v>
+        <v>1.744454741846488</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.356617899634451</v>
@@ -34537,7 +34429,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.708331295034831</v>
+        <v>1.747470818468372</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.281712223944769</v>
@@ -34626,7 +34518,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.718873230329719</v>
+        <v>1.754679027378144</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.118960427596184</v>
@@ -34715,7 +34607,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.725179273180101</v>
+        <v>1.756601652547263</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.32080500606858</v>
@@ -34804,7 +34696,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.743619333882144</v>
+        <v>1.775342242710503</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.451022561335567</v>
@@ -34893,7 +34785,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.747077223066821</v>
+        <v>1.779787443222718</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.128774503830516</v>
@@ -34982,7 +34874,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.767002885132138</v>
+        <v>1.798996252161973</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.414187931740004</v>
@@ -35071,7 +34963,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.768937456550652</v>
+        <v>1.800653324921963</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.38026086502678</v>
@@ -35160,7 +35052,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.774346864535897</v>
+        <v>1.81265491760027</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.048290820630481</v>
@@ -35249,7 +35141,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.776379765597337</v>
+        <v>1.818401821801934</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.272243044459441</v>
@@ -35338,7 +35230,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.789354121065092</v>
+        <v>1.819962934789245</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.186098490657587</v>
@@ -35427,7 +35319,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.805088322223865</v>
+        <v>1.828271571635792</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.509617353256629</v>
@@ -35516,7 +35408,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.821754078486248</v>
+        <v>1.843482867825998</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.542574644770708</v>
@@ -35605,7 +35497,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.837482017190774</v>
+        <v>1.853697169822918</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.157621939707792</v>
@@ -35694,7 +35586,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.857736219293555</v>
+        <v>1.857133656941282</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.003638811824288</v>
@@ -35783,7 +35675,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.886449329758404</v>
+        <v>1.87665323287525</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.435800286017513</v>
